--- a/story/主线剧情/main/level_main_07-06_beg.xlsx
+++ b/story/主线剧情/main/level_main_07-06_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="651">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -1318,6 +1321,654 @@
   </si>
   <si>
     <t xml:space="preserve">[name="ケルシー"]  （いや、どういう状況でもだ、Dr.{@nickname}。君はそうする他に選択肢はない……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  Leader.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Phantom Crossbowmen, I’m glad to see you’ve returned safely.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You brought so many. Are they all our people from Lungmen?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  There are so many Infected... who came back with us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  I didn’t think we’d meet you here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We can save a lot of lives making full use of Chernobog’s resources . This core city will be our final weapon to breach Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  What? No, my Leader...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  Why was Lungmen so different from what we planned? So many of our comrades died back there for nothing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  You dare speak to the leader like this...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  No, he’s right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Many of our dear friends have suffered so much. The enemy left a lot of treacherous traps for us that disrupted our plans. It was a major setback.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  However, even if our pioneers faced some obstacles, the Reunion Movement will avenge them. I shall see to it that your wounds, your sacrifices, are made whole again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Worry not. We will be with you, always.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  ...I hope so, Leader.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Hmm... The person you’re carrying... Mephisto? Is he...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Faust sacrificed himself to save him, didn’t he?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  ...That’s right, Leader. With no regard for his own life, Faust used his Arts to cover our tracks and give us a chance to escape.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Oh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Phantom Crossbowmen, my people of Reunion... Faust will live on forever in our hearts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Help him down. Mephisto will need to rest awhile.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I will have some men take you to camp.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  Another thing, Leader... We lost contact with Crownslayer early on. We haven’t heard anything from her. Don’t know where she might have ended up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  As for... Yeti Squad, and FrostNova, they... they’re all...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Truly unfathomably tragic news.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Please, allow me... some time to myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Sarkaz, do not let them near any of our Reunion units in the city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  How far do we go?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  All the way. See to it that they never set foot here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Could they be hiding something, or have they been digging around? Their team must know something I don’t.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Maybe... that battle was somewhat transformative. Those Arts were already exceptional, and he was not talkative.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...He cloaked himself in his silence. I thought Faust would be the one to survive.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But then, this isn’t so strange either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  ...Who are you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who am I?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  What do you want?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do I want...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Join... you? Fight for myself?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Ahh, for the exalted Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Here you were supposed to be the last one standing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Looks like the core city is back up to speed. It didn’t stop for long.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  On the upside, that should have been Reunion taking in a group of Infected migrants from Lungmen. I hope...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But we may have to change up our strategy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We can expect the city to make a few more stops along the way until the enemy commander decides to announce her plan. Then she’ll stop taking in Infected refugees.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  At that time, should Wei Yenwu decide to attack, the enemy will redeploy their defensive units. We may be exposed in the process, and come under attack.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I hope our agreement with Miss Fumizuki will buy us some time from Chief Wei...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Hm.. we’re already very close to the center of the core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  There are a lot of passages above and below us that seem like they were part of the city’s transit system. After the Catastrophe, everything stopped working.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  That does mean it's impossible for the city to function, and even move…? Could this be the underground structure Dr. Kal'tsit was talking about?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Regardless, these passages make good cover for us. The number of enemy guards has nearly doubled in this storage area close to the central district...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  We haven’t seen much resistance since entering the core city. But once we proceed to the central district, we should expect to run into a lot more Reunion forces.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The recon and spec ops teams are already in position. So far so good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Why do we only have three teams working together?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The recon and spec ops teams both have their own missions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Raidian is leading the recon team for this operation, as one of Rhodes Island’s communications specialists.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Thanks to Raidian, the recon team serves as the focal point for our comms in this operation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even here in the core city, we’ll be able to communicate with the other teams. That’s because of their hard work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I didn’t see them...", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The recon team always works alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Outcast, Raidian, and Scout, who heroically gave his life in the Chernobog rescue mission—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The elite operators leading the recon teams are responsible for leading their squads alone, identifying and reporting threats, and attempting to resolve them without assistance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Raidian isn’t as skilled in combat as the other two elite operators, but she is a unique talent at Rhodes Island when it comes to directly influencing the course of a battle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We’ve got three teams engaging in this assault operation. We don’t need Raidian to trouble herself with combat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  As for the spec ops team, their mission also avoids direct combat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Explain it to me.;......;So you’re not going to tell me what it is?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It’s enough to know that they’re necessary. You’ll know the details soon enough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Each team makes up a link in the chain of our strategy. That stable structure breeds a stable result.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Conversely, a formidable opponent has a tangled and twisted root structure. They pull in nutrients from every level. Hacking off branches does them no harm.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We have to set their roots alight before they even know we're here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Huh? What are you talking about?;......;I think I get it.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Heh. I’m pretty sure you get it all...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  “Doctor.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Wait a second.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Some distant, vague feelings are coming to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  An orderly, unchanging flow, with no conflict.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...Ironclad. And they’re moving.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Reunion’s... guard team. Let’s avoid them and find another way...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  No time to lose.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  —Amiya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal’tsit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Careful. Can’t you feel it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Attention, operators... protective gear on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...It couldn’t be... Rosmontis? Are you feeling any anomalies? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Hm...? No. I don’t think so.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  This is beyond Rosmontis’s Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You can’t rely entirely on emotions, Amiya. There is more to feel than feelings alone. When you run your fingers through a head of hair, the first thing you feel is neither longing nor joy. It’s something more base than that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Base...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You can go back up to the surface from the depths, Amiya. Only you can.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Then I’ll try, Dr. Kal’tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Nnh... There’s a sliver of... energy. And a strong scent in the air, like...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...a corpse?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  No, this isn’t a real corpse. Could it be...? No. Oh? Why...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...It’s Sarkaz. Sarkaz Arts. Thick with the smell of death... A ritual...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It’s an ancient ritual that runs itself after taking shape.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  These are not modern Arts. Definitely not a modern tactic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Are Sarkaz Arts unique? ", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  They are. This is very unusual. The Sarkaz we know today can’t perform Arts like these.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I understand what you mean, Dr. Kal'tsit. This is an ancient Sarkaz ritual, not a product of the modern science of Originium Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Our enemy here may be of the “purest” Sarkaz. These are techniques not known to any modern country, passed down only among ancient Sarkaz and Sargonian nomads.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...The ritual relies on Oripathy infection, and the caster’s peculiar understanding of Originium.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The chaotic energy is seeping out of the Originium core, spilling out and enveloping the entire block.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I can’t even imagine how the potent tempest at the center of the ritual would affect a living being.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It wouldn’t know the difference between friend or foe... any living thing would be slowly pulled apart by the waves of energy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It doesn’t seem useful for modern combat. The cost far outweighs any potential gain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  “Cannibalism.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The phrasing may seem alarmist, but that’s how this ritual is called.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It’s not surprising that the device at the center of the ritual is called an altar, considering how horrifically destructive it is. That the uninitiated refer to this as “witchcraft.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I... I don’t think ordinary Sarkaz mercenaries know how to use these kinds of Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  You would have to have extensive Arts knowledge and combat experience from Kazdel to be able to pull off this ritual. And you wouldn’t actually need to be a caster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But he... he’s only a Kazdel Sarkaz. Not one of the descendants of the ancient Sarkaz still wandering around the world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Dr. Kal'tsit, is this second layer of protective equipment designed to protect against the Sarkaz Arts?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Not entirely. The amount of energy the ritual is producing exceeds the maximum tolerance of our equipment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  This ritual can only be completed successfully in a city lost to Catastrophe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Our gear will not negate the effects of the ritual. Its power derives from antiquity, and cannot be separated from it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  All we can do is mitigate its lethality, and destroy it after clearing the area.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  A Sarkaz ritual is not only a challenge to modern technology.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It’s almost as if it’s standing to once again challenge the other civilizations of this world, as the Sarkaz have plotted throughout history.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="It’s a metaphor.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Yes. But Sarkaz history is more than metaphorical.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The Reunion element guarding Chernobog is not a typical group. I’ve said as much already.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Reunion may very well rely on “hubs” in “neural networks” to operate as a single unit on a large scale.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But for today’s purely push-strategy driven environment, Reunion would be something of an anomaly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Imagine if soldiers who could not deal with the Infected, with no training in how to fight Sarkaz, infiltrated the core city...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  They would suffer a crushing defeat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Then... let me think...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Dr. {@nickname}, Dr. Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The places where the enemy performed the Sarkaz rituals must be important locations, or critical transport hubs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  They’re much more familiar with the terrain than we are. They would have mapped out all the paths long before we could... They must have had defenses in place before we even started our operation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The only advantage we have is our intelligence. We know how they’re deployed, and they know nothing about us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...So we move quickly to wipe out the enemies guarding this area. The faster we do it, the safer we’ll be. Don’t let them alert the other guards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Don’t even think about an ambush. We can’t waste time here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Right. I will help with the assault.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Hm, okay... I think...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal’tsit, look, I think, if...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  —Alright.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If you don’t need my assistance, Dr. {@nickname}.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Huh?;......;Is there something I can help with?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Please help Amiya command the operation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You will evaluate the progress of the battle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Roger!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Rosmontis, we’re moving out!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  We’ll vacate the area after this battle and head to the core city surface!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Rosmontis... at least it’ll be sunny.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Sunny~
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  (......)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  (Heh. Look at them.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  (The rest is up to you, Dr. {@nickname}. I know you won’t let us down.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kal'tsit, we won’t see that disappointment again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You never step into the same river twice. There won’t be a second time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even with the same person, the same thing... in a different time, we’ll have a different outcome. This world... will change.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You believe it, don’t you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes... It makes sense that you wouldn’t.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But I believe it. Dr. {@nickname}, a person like that... I know... if it wasn’t this time right now, Dr. {@nickname} would be different.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ve seen a lot, so very many... Even if everyone else won’t, I can understand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kal'tsit... Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If... we had a little more time... you and I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  (You can prove you’re not the Dr. {@nickname} that was stuck in the past.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  (In this time...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  (No matter how, Dr. {@nickname}, you have to.)
 </t>
   </si>
   <si>
@@ -2320,13 +2971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2336,1820 +2987,2318 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" t="s">
+        <v>343</v>
+      </c>
+      <c r="D31" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>355</v>
+      </c>
+      <c r="D32" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" t="s">
+        <v>356</v>
+      </c>
+      <c r="D33" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" t="s">
+        <v>357</v>
+      </c>
+      <c r="D34" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" t="s">
+        <v>358</v>
+      </c>
+      <c r="D35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" t="s">
+        <v>359</v>
+      </c>
+      <c r="D36" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" t="s">
+        <v>360</v>
+      </c>
+      <c r="D37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" t="s">
+        <v>362</v>
+      </c>
+      <c r="D39" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" t="s">
+        <v>363</v>
+      </c>
+      <c r="D40" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" t="s">
+        <v>364</v>
+      </c>
+      <c r="D41" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" t="s">
+        <v>365</v>
+      </c>
+      <c r="D42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" t="s">
+        <v>366</v>
+      </c>
+      <c r="D43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" t="s">
+        <v>367</v>
+      </c>
+      <c r="D44" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" t="s">
+        <v>368</v>
+      </c>
+      <c r="D45" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" t="s">
+        <v>369</v>
+      </c>
+      <c r="D46" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" t="s">
+        <v>370</v>
+      </c>
+      <c r="D47" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" t="s">
+        <v>371</v>
+      </c>
+      <c r="D48" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" t="s">
+        <v>372</v>
+      </c>
+      <c r="D49" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>373</v>
+      </c>
+      <c r="D50" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" t="s">
+        <v>374</v>
+      </c>
+      <c r="D51" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" t="s">
+        <v>375</v>
+      </c>
+      <c r="D52" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" t="s">
+        <v>376</v>
+      </c>
+      <c r="D53" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" t="s">
+        <v>377</v>
+      </c>
+      <c r="D54" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" t="s">
+        <v>378</v>
+      </c>
+      <c r="D55" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" t="s">
+        <v>379</v>
+      </c>
+      <c r="D56" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" t="s">
+        <v>380</v>
+      </c>
+      <c r="D57" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" t="s">
+        <v>381</v>
+      </c>
+      <c r="D58" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" t="s">
+        <v>382</v>
+      </c>
+      <c r="D59" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" t="s">
+        <v>383</v>
+      </c>
+      <c r="D60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" t="s">
+        <v>384</v>
+      </c>
+      <c r="D61" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" t="s">
+        <v>385</v>
+      </c>
+      <c r="D62" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" t="s">
+        <v>386</v>
+      </c>
+      <c r="D63" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" t="s">
+        <v>387</v>
+      </c>
+      <c r="D64" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" t="s">
+        <v>388</v>
+      </c>
+      <c r="D65" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" t="s">
+        <v>389</v>
+      </c>
+      <c r="D66" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" t="s">
+        <v>390</v>
+      </c>
+      <c r="D67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" t="s">
+        <v>391</v>
+      </c>
+      <c r="D68" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" t="s">
+        <v>393</v>
+      </c>
+      <c r="D70" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" t="s">
+        <v>394</v>
+      </c>
+      <c r="D71" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" t="s">
+        <v>395</v>
+      </c>
+      <c r="D72" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" t="s">
+        <v>396</v>
+      </c>
+      <c r="D73" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" t="s">
+        <v>397</v>
+      </c>
+      <c r="D74" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" t="s">
+        <v>399</v>
+      </c>
+      <c r="D76" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" t="s">
+        <v>400</v>
+      </c>
+      <c r="D77" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" t="s">
+        <v>401</v>
+      </c>
+      <c r="D78" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" t="s">
+        <v>402</v>
+      </c>
+      <c r="D79" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" t="s">
+        <v>403</v>
+      </c>
+      <c r="D80" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" t="s">
+        <v>404</v>
+      </c>
+      <c r="D81" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" t="s">
+        <v>405</v>
+      </c>
+      <c r="D82" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" t="s">
+        <v>406</v>
+      </c>
+      <c r="D83" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" t="s">
+        <v>407</v>
+      </c>
+      <c r="D84" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" t="s">
+        <v>408</v>
+      </c>
+      <c r="D85" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" t="s">
+        <v>409</v>
+      </c>
+      <c r="D86" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87" t="s">
+        <v>410</v>
+      </c>
+      <c r="D87" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" t="s">
+        <v>411</v>
+      </c>
+      <c r="D88" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" t="s">
+        <v>412</v>
+      </c>
+      <c r="D89" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" t="s">
+        <v>413</v>
+      </c>
+      <c r="D90" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" t="s">
+        <v>414</v>
+      </c>
+      <c r="D91" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" t="s">
+        <v>415</v>
+      </c>
+      <c r="D92" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C93" t="s">
+        <v>416</v>
+      </c>
+      <c r="D93" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" t="s">
+        <v>417</v>
+      </c>
+      <c r="D94" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" t="s">
+        <v>418</v>
+      </c>
+      <c r="D95" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>257</v>
+      </c>
+      <c r="C96" t="s">
+        <v>419</v>
+      </c>
+      <c r="D96" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>258</v>
+      </c>
+      <c r="C97" t="s">
+        <v>420</v>
+      </c>
+      <c r="D97" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>259</v>
+      </c>
+      <c r="C98" t="s">
+        <v>421</v>
+      </c>
+      <c r="D98" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>260</v>
+      </c>
+      <c r="C99" t="s">
+        <v>422</v>
+      </c>
+      <c r="D99" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>261</v>
+      </c>
+      <c r="C100" t="s">
+        <v>423</v>
+      </c>
+      <c r="D100" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" t="s">
+        <v>424</v>
+      </c>
+      <c r="D101" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>263</v>
+      </c>
+      <c r="C102" t="s">
+        <v>425</v>
+      </c>
+      <c r="D102" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" t="s">
+        <v>426</v>
+      </c>
+      <c r="D103" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" t="s">
+        <v>427</v>
+      </c>
+      <c r="D104" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>266</v>
+      </c>
+      <c r="C105" t="s">
+        <v>428</v>
+      </c>
+      <c r="D105" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" t="s">
+        <v>429</v>
+      </c>
+      <c r="D106" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" t="s">
+        <v>430</v>
+      </c>
+      <c r="D107" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>269</v>
+      </c>
+      <c r="C108" t="s">
+        <v>431</v>
+      </c>
+      <c r="D108" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" t="s">
+        <v>432</v>
+      </c>
+      <c r="D109" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>271</v>
+      </c>
+      <c r="C110" t="s">
+        <v>433</v>
+      </c>
+      <c r="D110" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111" t="s">
+        <v>434</v>
+      </c>
+      <c r="D111" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>273</v>
+      </c>
+      <c r="C112" t="s">
+        <v>435</v>
+      </c>
+      <c r="D112" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" t="s">
+        <v>436</v>
+      </c>
+      <c r="D113" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>275</v>
+      </c>
+      <c r="C114" t="s">
+        <v>437</v>
+      </c>
+      <c r="D114" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" t="s">
+        <v>438</v>
+      </c>
+      <c r="D115" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116" t="s">
+        <v>439</v>
+      </c>
+      <c r="D116" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" t="s">
+        <v>440</v>
+      </c>
+      <c r="D117" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>279</v>
+      </c>
+      <c r="C118" t="s">
+        <v>441</v>
+      </c>
+      <c r="D118" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>280</v>
+      </c>
+      <c r="C119" t="s">
+        <v>442</v>
+      </c>
+      <c r="D119" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>281</v>
+      </c>
+      <c r="C120" t="s">
+        <v>443</v>
+      </c>
+      <c r="D120" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>282</v>
+      </c>
+      <c r="C121" t="s">
+        <v>444</v>
+      </c>
+      <c r="D121" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>283</v>
+      </c>
+      <c r="C122" t="s">
+        <v>445</v>
+      </c>
+      <c r="D122" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>284</v>
+      </c>
+      <c r="C123" t="s">
+        <v>446</v>
+      </c>
+      <c r="D123" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>285</v>
+      </c>
+      <c r="C124" t="s">
+        <v>447</v>
+      </c>
+      <c r="D124" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>286</v>
+      </c>
+      <c r="C125" t="s">
+        <v>448</v>
+      </c>
+      <c r="D125" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>287</v>
+      </c>
+      <c r="C126" t="s">
+        <v>449</v>
+      </c>
+      <c r="D126" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>288</v>
+      </c>
+      <c r="C127" t="s">
+        <v>450</v>
+      </c>
+      <c r="D127" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" t="s">
+        <v>451</v>
+      </c>
+      <c r="D128" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>290</v>
+      </c>
+      <c r="C129" t="s">
+        <v>452</v>
+      </c>
+      <c r="D129" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" t="s">
+        <v>453</v>
+      </c>
+      <c r="D130" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>292</v>
+      </c>
+      <c r="C131" t="s">
+        <v>454</v>
+      </c>
+      <c r="D131" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>293</v>
+      </c>
+      <c r="C132" t="s">
+        <v>455</v>
+      </c>
+      <c r="D132" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>294</v>
+      </c>
+      <c r="C133" t="s">
+        <v>456</v>
+      </c>
+      <c r="D133" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" t="s">
+        <v>457</v>
+      </c>
+      <c r="D134" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>296</v>
+      </c>
+      <c r="C135" t="s">
+        <v>458</v>
+      </c>
+      <c r="D135" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>297</v>
+      </c>
+      <c r="C136" t="s">
+        <v>459</v>
+      </c>
+      <c r="D136" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>298</v>
+      </c>
+      <c r="C137" t="s">
+        <v>460</v>
+      </c>
+      <c r="D137" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>299</v>
+      </c>
+      <c r="C138" t="s">
+        <v>461</v>
+      </c>
+      <c r="D138" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>300</v>
+      </c>
+      <c r="C139" t="s">
+        <v>462</v>
+      </c>
+      <c r="D139" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>301</v>
+      </c>
+      <c r="C140" t="s">
+        <v>463</v>
+      </c>
+      <c r="D140" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>302</v>
+      </c>
+      <c r="C141" t="s">
+        <v>464</v>
+      </c>
+      <c r="D141" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>303</v>
+      </c>
+      <c r="C142" t="s">
+        <v>465</v>
+      </c>
+      <c r="D142" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>304</v>
+      </c>
+      <c r="C143" t="s">
+        <v>466</v>
+      </c>
+      <c r="D143" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>305</v>
+      </c>
+      <c r="C144" t="s">
+        <v>467</v>
+      </c>
+      <c r="D144" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>306</v>
+      </c>
+      <c r="C145" t="s">
+        <v>468</v>
+      </c>
+      <c r="D145" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>307</v>
+      </c>
+      <c r="C146" t="s">
+        <v>469</v>
+      </c>
+      <c r="D146" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>308</v>
+      </c>
+      <c r="C147" t="s">
+        <v>470</v>
+      </c>
+      <c r="D147" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>309</v>
+      </c>
+      <c r="C148" t="s">
+        <v>471</v>
+      </c>
+      <c r="D148" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>310</v>
+      </c>
+      <c r="C149" t="s">
+        <v>472</v>
+      </c>
+      <c r="D149" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>311</v>
+      </c>
+      <c r="C150" t="s">
+        <v>473</v>
+      </c>
+      <c r="D150" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>312</v>
+      </c>
+      <c r="C151" t="s">
+        <v>474</v>
+      </c>
+      <c r="D151" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>313</v>
+      </c>
+      <c r="C152" t="s">
+        <v>475</v>
+      </c>
+      <c r="D152" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>314</v>
+      </c>
+      <c r="C153" t="s">
+        <v>476</v>
+      </c>
+      <c r="D153" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>315</v>
+      </c>
+      <c r="C154" t="s">
+        <v>477</v>
+      </c>
+      <c r="D154" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>316</v>
+      </c>
+      <c r="C155" t="s">
+        <v>478</v>
+      </c>
+      <c r="D155" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>317</v>
+      </c>
+      <c r="C156" t="s">
+        <v>479</v>
+      </c>
+      <c r="D156" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>318</v>
+      </c>
+      <c r="C157" t="s">
+        <v>480</v>
+      </c>
+      <c r="D157" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>319</v>
+      </c>
+      <c r="C158" t="s">
+        <v>481</v>
+      </c>
+      <c r="D158" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159" t="s">
+        <v>482</v>
+      </c>
+      <c r="D159" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" t="s">
+        <v>483</v>
+      </c>
+      <c r="D160" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>322</v>
+      </c>
+      <c r="C161" t="s">
+        <v>484</v>
+      </c>
+      <c r="D161" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+      <c r="C162" t="s">
+        <v>485</v>
+      </c>
+      <c r="D162" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" t="s">
+        <v>486</v>
+      </c>
+      <c r="D163" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>325</v>
+      </c>
+      <c r="C164" t="s">
+        <v>487</v>
+      </c>
+      <c r="D164" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>326</v>
+      </c>
+      <c r="C165" t="s">
+        <v>488</v>
+      </c>
+      <c r="D165" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
         <v>166</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B166" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C29" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>194</v>
-      </c>
-      <c r="C34" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C35" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>196</v>
-      </c>
-      <c r="C36" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C39" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>200</v>
-      </c>
-      <c r="C40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>201</v>
-      </c>
-      <c r="C41" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>211</v>
-      </c>
-      <c r="C51" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>214</v>
-      </c>
-      <c r="C54" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>215</v>
-      </c>
-      <c r="C55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>223</v>
-      </c>
-      <c r="C63" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>224</v>
-      </c>
-      <c r="C64" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>225</v>
-      </c>
-      <c r="C65" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>226</v>
-      </c>
-      <c r="C66" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>227</v>
-      </c>
-      <c r="C67" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>228</v>
-      </c>
-      <c r="C68" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>229</v>
-      </c>
-      <c r="C69" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>230</v>
-      </c>
-      <c r="C70" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>231</v>
-      </c>
-      <c r="C71" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>232</v>
-      </c>
-      <c r="C72" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>233</v>
-      </c>
-      <c r="C73" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C74" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>235</v>
-      </c>
-      <c r="C75" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>236</v>
-      </c>
-      <c r="C76" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>237</v>
-      </c>
-      <c r="C77" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>238</v>
-      </c>
-      <c r="C78" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>239</v>
-      </c>
-      <c r="C79" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>240</v>
-      </c>
-      <c r="C80" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>241</v>
-      </c>
-      <c r="C81" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>242</v>
-      </c>
-      <c r="C82" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>243</v>
-      </c>
-      <c r="C83" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>244</v>
-      </c>
-      <c r="C84" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>245</v>
-      </c>
-      <c r="C85" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>246</v>
-      </c>
-      <c r="C86" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>247</v>
-      </c>
-      <c r="C87" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>249</v>
-      </c>
-      <c r="C89" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>250</v>
-      </c>
-      <c r="C90" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>251</v>
-      </c>
-      <c r="C91" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>252</v>
-      </c>
-      <c r="C92" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>253</v>
-      </c>
-      <c r="C93" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C94" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>255</v>
-      </c>
-      <c r="C95" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>256</v>
-      </c>
-      <c r="C96" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>257</v>
-      </c>
-      <c r="C97" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>258</v>
-      </c>
-      <c r="C98" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>259</v>
-      </c>
-      <c r="C99" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>260</v>
-      </c>
-      <c r="C100" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>261</v>
-      </c>
-      <c r="C101" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>262</v>
-      </c>
-      <c r="C102" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>263</v>
-      </c>
-      <c r="C103" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>264</v>
-      </c>
-      <c r="C104" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>265</v>
-      </c>
-      <c r="C105" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>266</v>
-      </c>
-      <c r="C106" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>267</v>
-      </c>
-      <c r="C107" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>268</v>
-      </c>
-      <c r="C108" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>269</v>
-      </c>
-      <c r="C109" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>270</v>
-      </c>
-      <c r="C110" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>271</v>
-      </c>
-      <c r="C111" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>272</v>
-      </c>
-      <c r="C112" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>273</v>
-      </c>
-      <c r="C113" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>274</v>
-      </c>
-      <c r="C114" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>275</v>
-      </c>
-      <c r="C115" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>276</v>
-      </c>
-      <c r="C116" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>277</v>
-      </c>
-      <c r="C117" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>278</v>
-      </c>
-      <c r="C118" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>279</v>
-      </c>
-      <c r="C119" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>280</v>
-      </c>
-      <c r="C120" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>281</v>
-      </c>
-      <c r="C121" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>282</v>
-      </c>
-      <c r="C122" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>283</v>
-      </c>
-      <c r="C123" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>284</v>
-      </c>
-      <c r="C124" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>285</v>
-      </c>
-      <c r="C125" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>286</v>
-      </c>
-      <c r="C126" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>287</v>
-      </c>
-      <c r="C127" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>288</v>
-      </c>
-      <c r="C128" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>289</v>
-      </c>
-      <c r="C129" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>290</v>
-      </c>
-      <c r="C130" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>291</v>
-      </c>
-      <c r="C131" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>292</v>
-      </c>
-      <c r="C132" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>293</v>
-      </c>
-      <c r="C133" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>294</v>
-      </c>
-      <c r="C134" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>295</v>
-      </c>
-      <c r="C135" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>296</v>
-      </c>
-      <c r="C136" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>297</v>
-      </c>
-      <c r="C137" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>298</v>
-      </c>
-      <c r="C138" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>299</v>
-      </c>
-      <c r="C139" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>300</v>
-      </c>
-      <c r="C140" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>301</v>
-      </c>
-      <c r="C141" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>302</v>
-      </c>
-      <c r="C142" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>303</v>
-      </c>
-      <c r="C143" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>304</v>
-      </c>
-      <c r="C144" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>305</v>
-      </c>
-      <c r="C145" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>306</v>
-      </c>
-      <c r="C146" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>307</v>
-      </c>
-      <c r="C147" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>308</v>
-      </c>
-      <c r="C148" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>309</v>
-      </c>
-      <c r="C149" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>310</v>
-      </c>
-      <c r="C150" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>311</v>
-      </c>
-      <c r="C151" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>312</v>
-      </c>
-      <c r="C152" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>313</v>
-      </c>
-      <c r="C153" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>314</v>
-      </c>
-      <c r="C154" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>315</v>
-      </c>
-      <c r="C155" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>316</v>
-      </c>
-      <c r="C156" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>317</v>
-      </c>
-      <c r="C157" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>318</v>
-      </c>
-      <c r="C158" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>319</v>
-      </c>
-      <c r="C159" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>320</v>
-      </c>
-      <c r="C160" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>321</v>
-      </c>
-      <c r="C161" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>322</v>
-      </c>
-      <c r="C162" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>323</v>
-      </c>
-      <c r="C163" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>324</v>
-      </c>
-      <c r="C164" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>164</v>
-      </c>
-      <c r="B165" t="s">
-        <v>325</v>
-      </c>
-      <c r="C165" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>165</v>
-      </c>
-      <c r="B166" t="s">
-        <v>326</v>
-      </c>
       <c r="C166" t="s">
-        <v>487</v>
+        <v>489</v>
+      </c>
+      <c r="D166" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
